--- a/数据整理/stocks/A股/深证主板/002965-祥鑫科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002965-祥鑫科技.xlsx
@@ -6,8 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,6 +451,58 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -537,56 +589,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002965-祥鑫科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002965-祥鑫科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -451,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,13 +483,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -498,6 +515,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011460</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳核心科技混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3569</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1686</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城双动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014840</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商裕华混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>63.58</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城双动力混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011461</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002965-祥鑫科技.xlsx
+++ b/数据整理/stocks/A股/深证主板/002965-祥鑫科技.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>1.35</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2022-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -515,6 +532,1768 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9102</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信澳核心科技混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4515</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2840</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015440</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信澳研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015056</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>百嘉百盛混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012102</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国寿安保低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015441</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信澳智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015034</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰信优势领航混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011027</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011028</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012103</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001281</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>015694</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002072</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长安鑫利优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007315</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010270</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安嘉盈一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015407</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国寿安保稳弘混合E</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015695</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>76.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1026,7 +2805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
